--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2103864.968139805</v>
+        <v>2100171.083387189</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2295956.10121807</v>
+        <v>2341983.383206077</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791247</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8660725.658992179</v>
+        <v>8659444.447629813</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18.93129518630234</v>
       </c>
       <c r="D2" t="n">
-        <v>237.3122538155758</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>94.92506628389177</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>51.9470768065809</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>72.55567497641755</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.31989304152376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>243.4281184309207</v>
       </c>
       <c r="D5" t="n">
-        <v>46.54583177901221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -984,13 +984,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>22.35381216476819</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1029,10 +1029,10 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>47.21676074617902</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1060,22 +1060,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581671</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,7 +1181,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1190,7 +1190,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.9867441724176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>55.12369050152972</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098729</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
-        <v>264.0286188592167</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1534,7 +1534,7 @@
         <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507318</v>
       </c>
       <c r="F13" t="n">
         <v>61.76140096484032</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627306</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>118.0051705939994</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876883</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>53.14371979813015</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>177.0269289140221</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2801,7 +2801,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>197.2266210107396</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>6.271381985373009</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>284.1280864677959</v>
+        <v>289.0582874597572</v>
       </c>
       <c r="C41" t="n">
-        <v>276.8820346956118</v>
+        <v>281.812235687573</v>
       </c>
       <c r="D41" t="n">
-        <v>269.225005709012</v>
+        <v>274.1552067009732</v>
       </c>
       <c r="E41" t="n">
-        <v>286.1959778481339</v>
+        <v>248.7989181865659</v>
       </c>
       <c r="F41" t="n">
-        <v>300.3637822988351</v>
+        <v>305.2939832907963</v>
       </c>
       <c r="G41" t="n">
-        <v>296.6694161703899</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>213.4107091346485</v>
       </c>
       <c r="I41" t="n">
-        <v>24.59203395197287</v>
+        <v>29.52223494393409</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.48670772187299</v>
+        <v>57.41690871383422</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9038846296905</v>
+        <v>113.8340856216518</v>
       </c>
       <c r="U41" t="n">
-        <v>140.8334904832604</v>
+        <v>145.7636914752217</v>
       </c>
       <c r="V41" t="n">
-        <v>164.8306746232558</v>
+        <v>231.2542304089911</v>
       </c>
       <c r="W41" t="n">
-        <v>254.9273328949085</v>
+        <v>259.8575338868697</v>
       </c>
       <c r="X41" t="n">
-        <v>273.1963672297868</v>
+        <v>278.126568221748</v>
       </c>
       <c r="Y41" t="n">
-        <v>280.1640902021179</v>
+        <v>285.0942911940792</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.99422671790131</v>
+        <v>75.92442770986254</v>
       </c>
       <c r="C43" t="n">
-        <v>56.14135496818372</v>
+        <v>61.07155596014495</v>
       </c>
       <c r="D43" t="n">
-        <v>41.71507018002345</v>
+        <v>46.64527117198467</v>
       </c>
       <c r="E43" t="n">
-        <v>41.64151223290256</v>
+        <v>46.57171322486379</v>
       </c>
       <c r="F43" t="n">
-        <v>43.39096365266983</v>
+        <v>48.32116464463105</v>
       </c>
       <c r="G43" t="n">
-        <v>54.20980157506196</v>
+        <v>59.14000256702319</v>
       </c>
       <c r="H43" t="n">
-        <v>41.562053741634</v>
+        <v>46.49225473359523</v>
       </c>
       <c r="I43" t="n">
-        <v>19.40176932280593</v>
+        <v>24.33197031476716</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.30026768726185</v>
+        <v>15.23046867922308</v>
       </c>
       <c r="S43" t="n">
-        <v>88.42621119278917</v>
+        <v>93.3564121847504</v>
       </c>
       <c r="T43" t="n">
-        <v>121.0001495269613</v>
+        <v>125.9303505189225</v>
       </c>
       <c r="U43" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459924</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9578399408971</v>
+        <v>155.8880409328583</v>
       </c>
       <c r="W43" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536084</v>
       </c>
       <c r="X43" t="n">
-        <v>119.3778072083598</v>
+        <v>124.308008200321</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.5192287850361</v>
+        <v>113.4494297769973</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>284.1280864677959</v>
+        <v>289.0582874597572</v>
       </c>
       <c r="C44" t="n">
-        <v>276.8820346956117</v>
+        <v>281.812235687573</v>
       </c>
       <c r="D44" t="n">
-        <v>269.225005709012</v>
+        <v>230.5781816775097</v>
       </c>
       <c r="E44" t="n">
-        <v>286.1959778481339</v>
+        <v>291.1261788400952</v>
       </c>
       <c r="F44" t="n">
-        <v>300.363782298835</v>
+        <v>305.2939832907963</v>
       </c>
       <c r="G44" t="n">
-        <v>26.69555323392797</v>
+        <v>301.5996171623511</v>
       </c>
       <c r="H44" t="n">
-        <v>208.4805081426873</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>24.59203395197285</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.48670772187297</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>108.9038846296905</v>
+        <v>113.8340856216518</v>
       </c>
       <c r="U44" t="n">
-        <v>140.8334904832604</v>
+        <v>145.7636914752217</v>
       </c>
       <c r="V44" t="n">
-        <v>226.3240294170298</v>
+        <v>231.2542304089911</v>
       </c>
       <c r="W44" t="n">
-        <v>254.9273328949084</v>
+        <v>259.8575338868697</v>
       </c>
       <c r="X44" t="n">
-        <v>273.1963672297867</v>
+        <v>278.126568221748</v>
       </c>
       <c r="Y44" t="n">
-        <v>280.1640902021179</v>
+        <v>285.0942911940792</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.9942267179013</v>
+        <v>75.92442770986256</v>
       </c>
       <c r="C46" t="n">
-        <v>56.14135496818371</v>
+        <v>61.07155596014496</v>
       </c>
       <c r="D46" t="n">
-        <v>41.71507018002343</v>
+        <v>46.64527117198469</v>
       </c>
       <c r="E46" t="n">
-        <v>41.64151223290254</v>
+        <v>46.5717132248638</v>
       </c>
       <c r="F46" t="n">
-        <v>43.39096365266981</v>
+        <v>48.32116464463107</v>
       </c>
       <c r="G46" t="n">
-        <v>54.20980157506195</v>
+        <v>59.1400025670232</v>
       </c>
       <c r="H46" t="n">
-        <v>41.56205374163399</v>
+        <v>46.49225473359525</v>
       </c>
       <c r="I46" t="n">
-        <v>19.40176932280592</v>
+        <v>24.33197031476718</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.30026768726184</v>
+        <v>15.23046867922309</v>
       </c>
       <c r="S46" t="n">
-        <v>88.42621119278915</v>
+        <v>93.35641218475041</v>
       </c>
       <c r="T46" t="n">
-        <v>121.0001495269612</v>
+        <v>125.9303505189225</v>
       </c>
       <c r="U46" t="n">
-        <v>170.2226920540311</v>
+        <v>175.1528930459924</v>
       </c>
       <c r="V46" t="n">
-        <v>150.957839940897</v>
+        <v>155.8880409328583</v>
       </c>
       <c r="W46" t="n">
-        <v>168.1353862616472</v>
+        <v>173.0655872536084</v>
       </c>
       <c r="X46" t="n">
-        <v>119.3778072083598</v>
+        <v>124.308008200321</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5192287850361</v>
+        <v>113.4494297769974</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.7509489860067</v>
+        <v>947.0171529330427</v>
       </c>
       <c r="C2" t="n">
-        <v>626.7509489860067</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="D2" t="n">
-        <v>387.0416016975463</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="E2" t="n">
-        <v>387.0416016975463</v>
+        <v>927.8946325428383</v>
       </c>
       <c r="F2" t="n">
-        <v>374.1875672679281</v>
+        <v>915.0405981132201</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0652157963353</v>
+        <v>501.8778426012233</v>
       </c>
       <c r="H2" t="n">
-        <v>40.98216536282599</v>
+        <v>177.7947921677139</v>
       </c>
       <c r="I2" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="J2" t="n">
-        <v>40.98216536282599</v>
+        <v>104.2908920195808</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9645213902878</v>
+        <v>463.2732480470427</v>
       </c>
       <c r="L2" t="n">
-        <v>893.2848131088167</v>
+        <v>951.5619793917544</v>
       </c>
       <c r="M2" t="n">
-        <v>1400.439109473788</v>
+        <v>951.5619793917544</v>
       </c>
       <c r="N2" t="n">
-        <v>1516.075215868829</v>
+        <v>1439.850710736466</v>
       </c>
       <c r="O2" t="n">
-        <v>1516.075215868829</v>
+        <v>1439.850710736466</v>
       </c>
       <c r="P2" t="n">
-        <v>1864.262708000351</v>
+        <v>1788.038202867988</v>
       </c>
       <c r="Q2" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R2" t="n">
-        <v>2011.115354426821</v>
+        <v>1934.890849294458</v>
       </c>
       <c r="S2" t="n">
-        <v>1844.601799367872</v>
+        <v>1768.377294235509</v>
       </c>
       <c r="T2" t="n">
-        <v>1621.101196927289</v>
+        <v>1544.876691794926</v>
       </c>
       <c r="U2" t="n">
-        <v>1365.348467361887</v>
+        <v>1289.123962229524</v>
       </c>
       <c r="V2" t="n">
-        <v>1023.241658065406</v>
+        <v>947.0171529330427</v>
       </c>
       <c r="W2" t="n">
-        <v>1023.241658065406</v>
+        <v>947.0171529330427</v>
       </c>
       <c r="X2" t="n">
-        <v>1023.241658065406</v>
+        <v>947.0171529330427</v>
       </c>
       <c r="Y2" t="n">
-        <v>626.7509489860067</v>
+        <v>947.0171529330427</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>554.0557594076301</v>
+        <v>688.169427960302</v>
       </c>
       <c r="C3" t="n">
-        <v>403.4015289677224</v>
+        <v>688.169427960302</v>
       </c>
       <c r="D3" t="n">
-        <v>273.3125615892027</v>
+        <v>558.0804605817823</v>
       </c>
       <c r="E3" t="n">
-        <v>136.8660707000904</v>
+        <v>421.63396969267</v>
       </c>
       <c r="F3" t="n">
-        <v>40.98216536282599</v>
+        <v>297.2021635758018</v>
       </c>
       <c r="G3" t="n">
-        <v>40.98216536282599</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H3" t="n">
-        <v>40.98216536282599</v>
+        <v>88.84492924826714</v>
       </c>
       <c r="I3" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="J3" t="n">
-        <v>154.0971475825534</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="K3" t="n">
-        <v>154.0971475825534</v>
+        <v>152.5726574799061</v>
       </c>
       <c r="L3" t="n">
-        <v>154.0971475825534</v>
+        <v>636.1387433782194</v>
       </c>
       <c r="M3" t="n">
-        <v>394.8132151400682</v>
+        <v>1124.427474722931</v>
       </c>
       <c r="N3" t="n">
-        <v>901.9675115050399</v>
+        <v>1612.716206067643</v>
       </c>
       <c r="O3" t="n">
-        <v>1409.121807870011</v>
+        <v>1612.716206067643</v>
       </c>
       <c r="P3" t="n">
-        <v>1814.743176586409</v>
+        <v>1738.518671454046</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R3" t="n">
-        <v>2049.1082681413</v>
+        <v>1948.966719907001</v>
       </c>
       <c r="S3" t="n">
-        <v>1914.177591041168</v>
+        <v>1896.494925152879</v>
       </c>
       <c r="T3" t="n">
-        <v>1737.193779240077</v>
+        <v>1719.511113351787</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.130635918719</v>
+        <v>1509.447970030429</v>
       </c>
       <c r="V3" t="n">
-        <v>1304.590634289786</v>
+        <v>1286.907968401496</v>
       </c>
       <c r="W3" t="n">
-        <v>1074.473388423072</v>
+        <v>1056.790722534783</v>
       </c>
       <c r="X3" t="n">
-        <v>885.1663107730842</v>
+        <v>867.4836448847948</v>
       </c>
       <c r="Y3" t="n">
-        <v>705.8520938485915</v>
+        <v>688.169427960302</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>677.6738181863986</v>
+        <v>112.7462358424187</v>
       </c>
       <c r="C4" t="n">
-        <v>677.6738181863986</v>
+        <v>112.7462358424187</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0407050889135</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0407050889135</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="F4" t="n">
-        <v>364.7147703018865</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="G4" t="n">
-        <v>196.460716401332</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="H4" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="I4" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="J4" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="K4" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L4" t="n">
-        <v>286.9448463465676</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M4" t="n">
-        <v>473.2364246848316</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N4" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O4" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P4" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R4" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S4" t="n">
-        <v>739.6131040869277</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="U4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="V4" t="n">
-        <v>739.6131040869277</v>
+        <v>581.2846566025423</v>
       </c>
       <c r="W4" t="n">
-        <v>739.6131040869277</v>
+        <v>297.95425453372</v>
       </c>
       <c r="X4" t="n">
-        <v>739.6131040869277</v>
+        <v>297.95425453372</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.6738181863986</v>
+        <v>297.95425453372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.111090288473</v>
+        <v>307.321049475451</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.935588791404</v>
+        <v>61.43406116138969</v>
       </c>
       <c r="D5" t="n">
-        <v>1007.919597095432</v>
+        <v>61.43406116138969</v>
       </c>
       <c r="E5" t="n">
-        <v>605.3360722119762</v>
+        <v>61.43406116138969</v>
       </c>
       <c r="F5" t="n">
-        <v>188.4416337419539</v>
+        <v>48.5800267317715</v>
       </c>
       <c r="G5" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="H5" t="n">
-        <v>179.3192822703612</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="I5" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="J5" t="n">
-        <v>185.6319382716541</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="K5" t="n">
-        <v>544.614294299116</v>
+        <v>398.4400312876406</v>
       </c>
       <c r="L5" t="n">
-        <v>1037.934586017645</v>
+        <v>886.7287626323523</v>
       </c>
       <c r="M5" t="n">
-        <v>1037.934586017645</v>
+        <v>886.7287626323523</v>
       </c>
       <c r="N5" t="n">
-        <v>1076.035614976501</v>
+        <v>1347.99860197566</v>
       </c>
       <c r="O5" t="n">
-        <v>1516.075215868829</v>
+        <v>1788.038202867988</v>
       </c>
       <c r="P5" t="n">
-        <v>1864.262708000351</v>
+        <v>1788.038202867988</v>
       </c>
       <c r="Q5" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R5" t="n">
-        <v>2011.115354426821</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="S5" t="n">
-        <v>1844.601799367872</v>
+        <v>1806.370207949987</v>
       </c>
       <c r="T5" t="n">
-        <v>1844.601799367872</v>
+        <v>1806.370207949987</v>
       </c>
       <c r="U5" t="n">
-        <v>1844.601799367872</v>
+        <v>1806.370207949987</v>
       </c>
       <c r="V5" t="n">
-        <v>1844.601799367872</v>
+        <v>1464.263398653506</v>
       </c>
       <c r="W5" t="n">
-        <v>1844.601799367872</v>
+        <v>1093.264363621793</v>
       </c>
       <c r="X5" t="n">
-        <v>1844.601799367872</v>
+        <v>703.8117585548499</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.111090288473</v>
+        <v>307.321049475451</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530.1387163056947</v>
+        <v>838.8236584002098</v>
       </c>
       <c r="C6" t="n">
-        <v>379.484485865787</v>
+        <v>688.169427960302</v>
       </c>
       <c r="D6" t="n">
-        <v>249.3955184872673</v>
+        <v>558.0804605817823</v>
       </c>
       <c r="E6" t="n">
-        <v>112.949027598155</v>
+        <v>421.63396969267</v>
       </c>
       <c r="F6" t="n">
-        <v>112.949027598155</v>
+        <v>297.2021635758018</v>
       </c>
       <c r="G6" t="n">
-        <v>112.949027598155</v>
+        <v>177.1423456476662</v>
       </c>
       <c r="H6" t="n">
-        <v>90.3694193509144</v>
+        <v>88.84492924826714</v>
       </c>
       <c r="I6" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="K6" t="n">
-        <v>360.7213114250524</v>
+        <v>359.1968213224052</v>
       </c>
       <c r="L6" t="n">
-        <v>844.2873973233657</v>
+        <v>359.1968213224052</v>
       </c>
       <c r="M6" t="n">
-        <v>1136.332603059931</v>
+        <v>847.485552667117</v>
       </c>
       <c r="N6" t="n">
-        <v>1136.332603059931</v>
+        <v>1078.973662947827</v>
       </c>
       <c r="O6" t="n">
-        <v>1643.486899424902</v>
+        <v>1567.262394292539</v>
       </c>
       <c r="P6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2049.1082681413</v>
+        <v>1972.883763008937</v>
       </c>
       <c r="R6" t="n">
-        <v>2025.191225039364</v>
+        <v>1948.966719907001</v>
       </c>
       <c r="S6" t="n">
-        <v>1890.260547939233</v>
+        <v>1814.03604280687</v>
       </c>
       <c r="T6" t="n">
-        <v>1713.276736138141</v>
+        <v>1637.052231005778</v>
       </c>
       <c r="U6" t="n">
-        <v>1503.213592816783</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.67359118785</v>
+        <v>1589.358533282365</v>
       </c>
       <c r="W6" t="n">
-        <v>1050.556345321137</v>
+        <v>1359.241287415652</v>
       </c>
       <c r="X6" t="n">
-        <v>861.2492676711488</v>
+        <v>1169.934209765664</v>
       </c>
       <c r="Y6" t="n">
-        <v>681.9350507466561</v>
+        <v>990.6199928411711</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.2326303271961</v>
+        <v>225.469058531562</v>
       </c>
       <c r="C7" t="n">
-        <v>833.2326303271961</v>
+        <v>225.469058531562</v>
       </c>
       <c r="D7" t="n">
-        <v>677.599517229711</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="E7" t="n">
-        <v>522.0407050889135</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="F7" t="n">
-        <v>364.7147703018865</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="G7" t="n">
-        <v>196.460716401332</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="H7" t="n">
-        <v>40.98216536282599</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="I7" t="n">
-        <v>40.98216536282599</v>
+        <v>69.83594543407679</v>
       </c>
       <c r="J7" t="n">
-        <v>40.98216536282599</v>
+        <v>39.45767526017873</v>
       </c>
       <c r="K7" t="n">
-        <v>122.8172064727679</v>
+        <v>121.2927163701206</v>
       </c>
       <c r="L7" t="n">
-        <v>286.9448463465676</v>
+        <v>285.4203562439204</v>
       </c>
       <c r="M7" t="n">
-        <v>473.2364246848316</v>
+        <v>471.7119345821844</v>
       </c>
       <c r="N7" t="n">
-        <v>656.4260587160409</v>
+        <v>654.9015686133937</v>
       </c>
       <c r="O7" t="n">
-        <v>819.1308257577489</v>
+        <v>817.6063356551017</v>
       </c>
       <c r="P7" t="n">
-        <v>939.0069915343274</v>
+        <v>937.4825014316802</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.4291879043784</v>
+        <v>940.9046978017312</v>
       </c>
       <c r="R7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="S7" t="n">
-        <v>942.4291879043784</v>
+        <v>817.0037084343082</v>
       </c>
       <c r="T7" t="n">
-        <v>942.4291879043784</v>
+        <v>776.8871954688368</v>
       </c>
       <c r="U7" t="n">
-        <v>942.4291879043784</v>
+        <v>491.4484037107378</v>
       </c>
       <c r="V7" t="n">
-        <v>942.4291879043784</v>
+        <v>225.469058531562</v>
       </c>
       <c r="W7" t="n">
-        <v>942.4291879043784</v>
+        <v>225.469058531562</v>
       </c>
       <c r="X7" t="n">
-        <v>833.2326303271961</v>
+        <v>225.469058531562</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.2326303271961</v>
+        <v>225.469058531562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>207.6264729102897</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>207.6264729102897</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>207.6264729102897</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,19 +4802,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001287</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>968.782859969574</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026308</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.6264729102897</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9934655576342</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>102.9934655576342</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>102.9934655576342</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>102.9934655576342</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>102.9934655576342</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>386.3238676264566</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>102.9934655576342</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>102.9934655576342</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.9934655576342</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463915</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>423.7929329501239</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>380.3412019289242</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M11" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002407</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2745.011542002407</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2745.011542002407</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5130,13 +5130,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5200,19 +5200,19 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5239,10 +5239,10 @@
         <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1327.490288466743</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>974.833763878426</v>
+        <v>931.4373282580791</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955921</v>
+        <v>609.4835710752452</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707836</v>
+        <v>291.2614968504367</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244626</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411573</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551005</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C16" t="n">
         <v>417.8199303082781</v>
@@ -5422,46 +5422,46 @@
         <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311671</v>
+        <v>160.8107415311672</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798495</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.396746836251</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346976</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5476,10 +5476,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924369</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5972,13 +5972,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
         <v>68.7795079292424</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.46733722469</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,22 +6151,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>965.7235964838002</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.542679919436</v>
+        <v>1835.670734401736</v>
       </c>
       <c r="C26" t="n">
-        <v>1579.307859709555</v>
+        <v>1537.435914191855</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.80741221341</v>
+        <v>1246.935466695711</v>
       </c>
       <c r="E26" t="n">
-        <v>981.1645686171433</v>
+        <v>939.2926230994437</v>
       </c>
       <c r="F26" t="n">
-        <v>659.2108114343094</v>
+        <v>617.3388659166098</v>
       </c>
       <c r="G26" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H26" t="n">
-        <v>111.84636806318</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="I26" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J26" t="n">
-        <v>306.1510670812346</v>
+        <v>214.6241954543085</v>
       </c>
       <c r="K26" t="n">
-        <v>758.1847848382697</v>
+        <v>573.6065514817703</v>
       </c>
       <c r="L26" t="n">
-        <v>1319.797278296802</v>
+        <v>1159.978204929872</v>
       </c>
       <c r="M26" t="n">
-        <v>1865.798178341383</v>
+        <v>1755.919960014599</v>
       </c>
       <c r="N26" t="n">
-        <v>2393.609461978845</v>
+        <v>2376.782605381634</v>
       </c>
       <c r="O26" t="n">
-        <v>2833.649062871174</v>
+        <v>2909.873568003536</v>
       </c>
       <c r="P26" t="n">
-        <v>3181.836555002696</v>
+        <v>3258.061060135058</v>
       </c>
       <c r="Q26" t="n">
-        <v>3366.682115143644</v>
+        <v>3442.906620276007</v>
       </c>
       <c r="R26" t="n">
-        <v>3422.496622141658</v>
+        <v>3498.72112727402</v>
       </c>
       <c r="S26" t="n">
-        <v>3350.923748369897</v>
+        <v>3427.148253502259</v>
       </c>
       <c r="T26" t="n">
-        <v>3222.363827216502</v>
+        <v>3298.588332348864</v>
       </c>
       <c r="U26" t="n">
-        <v>3061.551778938288</v>
+        <v>3137.776284070651</v>
       </c>
       <c r="V26" t="n">
-        <v>2814.385650928995</v>
+        <v>2890.610156061357</v>
       </c>
       <c r="W26" t="n">
-        <v>2538.327297184471</v>
+        <v>2614.551802316833</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.646772135855</v>
+        <v>2320.039878537078</v>
       </c>
       <c r="Y26" t="n">
-        <v>2183.096744343644</v>
+        <v>2141.224798825945</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C27" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D27" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E27" t="n">
-        <v>450.6262268753244</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F27" t="n">
-        <v>326.1944207584562</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G27" t="n">
-        <v>206.1346028303207</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H27" t="n">
-        <v>117.8371864309216</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I27" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="K27" t="n">
-        <v>501.304060724787</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="L27" t="n">
-        <v>984.8701466231003</v>
+        <v>553.5405084437937</v>
       </c>
       <c r="M27" t="n">
-        <v>1230.2787245562</v>
+        <v>576.0252434482881</v>
       </c>
       <c r="N27" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O27" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P27" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V27" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W27" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.4151716938178</v>
+        <v>500.9396617964651</v>
       </c>
       <c r="C28" t="n">
-        <v>424.1507350469954</v>
+        <v>425.6752251496428</v>
       </c>
       <c r="D28" t="n">
-        <v>363.4583032366984</v>
+        <v>364.9827933393459</v>
       </c>
       <c r="E28" t="n">
-        <v>302.8401723830896</v>
+        <v>304.3646624857367</v>
       </c>
       <c r="F28" t="n">
-        <v>240.4549188832507</v>
+        <v>241.979408985898</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1415462698844</v>
+        <v>168.6660363725319</v>
       </c>
       <c r="H28" t="n">
-        <v>106.603676518567</v>
+        <v>108.1281666212142</v>
       </c>
       <c r="I28" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J28" t="n">
-        <v>131.7275515749691</v>
+        <v>133.2520416776161</v>
       </c>
       <c r="K28" t="n">
-        <v>306.6139544144837</v>
+        <v>308.1384445171312</v>
       </c>
       <c r="L28" t="n">
-        <v>563.7929560178566</v>
+        <v>565.3174461205043</v>
       </c>
       <c r="M28" t="n">
-        <v>843.1358960856937</v>
+        <v>844.6603861883417</v>
       </c>
       <c r="N28" t="n">
-        <v>1119.376891846476</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O28" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P28" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326181</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715684</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.92002506846</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700196</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.383250705562</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W28" t="n">
-        <v>856.9935299239276</v>
+        <v>858.5180200265748</v>
       </c>
       <c r="X28" t="n">
-        <v>717.8538889940991</v>
+        <v>719.3783790967464</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.6825090979307</v>
+        <v>591.2069992005781</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.542679919436</v>
+        <v>1712.93578632066</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.307859709555</v>
+        <v>1414.700966110778</v>
       </c>
       <c r="D29" t="n">
-        <v>1288.80741221341</v>
+        <v>1124.200518614634</v>
       </c>
       <c r="E29" t="n">
-        <v>981.1645686171433</v>
+        <v>816.557675018367</v>
       </c>
       <c r="F29" t="n">
-        <v>659.2108114343094</v>
+        <v>617.3388659166098</v>
       </c>
       <c r="G29" t="n">
-        <v>340.988737209501</v>
+        <v>299.1167916918014</v>
       </c>
       <c r="H29" t="n">
-        <v>111.84636806318</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="I29" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J29" t="n">
-        <v>306.1510670812345</v>
+        <v>214.6241954543085</v>
       </c>
       <c r="K29" t="n">
-        <v>733.4256248487002</v>
+        <v>666.6579132113436</v>
       </c>
       <c r="L29" t="n">
-        <v>1226.745916567229</v>
+        <v>1209.919059970018</v>
       </c>
       <c r="M29" t="n">
-        <v>1772.74681661181</v>
+        <v>1755.919960014599</v>
       </c>
       <c r="N29" t="n">
-        <v>2393.609461978845</v>
+        <v>2376.782605381634</v>
       </c>
       <c r="O29" t="n">
-        <v>2833.649062871174</v>
+        <v>2816.822206273963</v>
       </c>
       <c r="P29" t="n">
-        <v>3181.836555002696</v>
+        <v>3258.061060135058</v>
       </c>
       <c r="Q29" t="n">
-        <v>3366.682115143644</v>
+        <v>3442.906620276007</v>
       </c>
       <c r="R29" t="n">
-        <v>3422.496622141658</v>
+        <v>3498.72112727402</v>
       </c>
       <c r="S29" t="n">
-        <v>3350.923748369897</v>
+        <v>3427.148253502259</v>
       </c>
       <c r="T29" t="n">
-        <v>3222.363827216502</v>
+        <v>3298.588332348864</v>
       </c>
       <c r="U29" t="n">
-        <v>3061.551778938288</v>
+        <v>3137.776284070651</v>
       </c>
       <c r="V29" t="n">
-        <v>3055.217049660134</v>
+        <v>2890.610156061358</v>
       </c>
       <c r="W29" t="n">
-        <v>2779.15869591561</v>
+        <v>2614.551802316834</v>
       </c>
       <c r="X29" t="n">
-        <v>2484.646772135855</v>
+        <v>2320.039878537079</v>
       </c>
       <c r="Y29" t="n">
-        <v>2183.096744343644</v>
+        <v>2018.489850744868</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.8159155828641</v>
+        <v>869.3404056855113</v>
       </c>
       <c r="C30" t="n">
-        <v>717.1616851429563</v>
+        <v>718.6861752456035</v>
       </c>
       <c r="D30" t="n">
-        <v>587.0727177644367</v>
+        <v>588.5972078670839</v>
       </c>
       <c r="E30" t="n">
-        <v>450.6262268753244</v>
+        <v>452.1507169779716</v>
       </c>
       <c r="F30" t="n">
-        <v>326.1944207584562</v>
+        <v>327.7189108611034</v>
       </c>
       <c r="G30" t="n">
-        <v>206.1346028303207</v>
+        <v>207.6590929329679</v>
       </c>
       <c r="H30" t="n">
-        <v>117.8371864309216</v>
+        <v>119.3616765335688</v>
       </c>
       <c r="I30" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J30" t="n">
-        <v>181.5649146625605</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="K30" t="n">
-        <v>501.304060724787</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="L30" t="n">
-        <v>984.8701466231003</v>
+        <v>389.7135686077069</v>
       </c>
       <c r="M30" t="n">
-        <v>984.8701466231003</v>
+        <v>1017.485218234388</v>
       </c>
       <c r="N30" t="n">
-        <v>1230.2787245562</v>
+        <v>1231.803214658847</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.799007147181</v>
+        <v>1748.323497249828</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.420375863579</v>
+        <v>2153.944865966226</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.785467418469</v>
+        <v>2388.309957521116</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.868424316533</v>
+        <v>2364.392914419181</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.937747216402</v>
+        <v>2229.46223731905</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.953935415311</v>
+        <v>2052.478425517958</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.890792093953</v>
+        <v>1842.4152821966</v>
       </c>
       <c r="V30" t="n">
-        <v>1618.35079046502</v>
+        <v>1619.875280567667</v>
       </c>
       <c r="W30" t="n">
-        <v>1388.233544598306</v>
+        <v>1389.758034700954</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.926466948318</v>
+        <v>1200.450957050965</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.612250023825</v>
+        <v>1021.136740126473</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.4151716938177</v>
+        <v>500.9396617964654</v>
       </c>
       <c r="C31" t="n">
-        <v>424.1507350469954</v>
+        <v>425.675225149643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.4583032366986</v>
+        <v>364.9827933393458</v>
       </c>
       <c r="E31" t="n">
-        <v>302.8401723830893</v>
+        <v>304.364662485737</v>
       </c>
       <c r="F31" t="n">
-        <v>240.4549188832507</v>
+        <v>241.9794089858983</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1415462698846</v>
+        <v>168.6660363725321</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6036765185669</v>
+        <v>108.1281666212144</v>
       </c>
       <c r="I31" t="n">
-        <v>68.44993244283316</v>
+        <v>69.97442254548041</v>
       </c>
       <c r="J31" t="n">
-        <v>131.7275515749689</v>
+        <v>133.2520416776163</v>
       </c>
       <c r="K31" t="n">
-        <v>306.6139544144837</v>
+        <v>308.1384445171314</v>
       </c>
       <c r="L31" t="n">
-        <v>563.7929560178568</v>
+        <v>565.3174461205042</v>
       </c>
       <c r="M31" t="n">
-        <v>843.1358960856942</v>
+        <v>844.6603861883416</v>
       </c>
       <c r="N31" t="n">
-        <v>1119.376891846477</v>
+        <v>1120.901381949124</v>
       </c>
       <c r="O31" t="n">
-        <v>1375.133020617758</v>
+        <v>1376.657510720406</v>
       </c>
       <c r="P31" t="n">
-        <v>1588.06054812391</v>
+        <v>1589.585038226557</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.534106223534</v>
+        <v>1686.058596326182</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.573798143299</v>
+        <v>1657.098288245947</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.698395613037</v>
+        <v>1549.222885715685</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.920025068459</v>
+        <v>1408.444515171107</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.421914597549</v>
+        <v>1217.946404700197</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.383250705561</v>
+        <v>1046.907740808209</v>
       </c>
       <c r="W31" t="n">
-        <v>856.9935299239273</v>
+        <v>858.5180200265752</v>
       </c>
       <c r="X31" t="n">
-        <v>717.8538889940988</v>
+        <v>719.3783790967467</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.6825090979305</v>
+        <v>591.2069992005784</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C32" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
         <v>68.77950792924223</v>
@@ -6728,22 +6728,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
         <v>1223.947919817482</v>
@@ -6856,25 +6856,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
         <v>1098.20216247628</v>
@@ -6920,19 +6920,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6962,19 +6962,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7011,28 +7011,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879418</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296498</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106228</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7199,19 +7199,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,16 +7333,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1530.733522324273</v>
+        <v>1428.779014516733</v>
       </c>
       <c r="C41" t="n">
-        <v>1251.054699399412</v>
+        <v>1144.120190589892</v>
       </c>
       <c r="D41" t="n">
-        <v>979.1102491882891</v>
+        <v>867.1957393767875</v>
       </c>
       <c r="E41" t="n">
-        <v>690.0234028770427</v>
+        <v>615.8837008044982</v>
       </c>
       <c r="F41" t="n">
-        <v>386.6256429792295</v>
+        <v>307.5059399047041</v>
       </c>
       <c r="G41" t="n">
-        <v>86.95956603944165</v>
+        <v>307.5059399047041</v>
       </c>
       <c r="H41" t="n">
-        <v>86.95956603944165</v>
+        <v>91.93956704142269</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3052.939508719036</v>
+        <v>3047.959507717055</v>
       </c>
       <c r="T41" t="n">
-        <v>2942.935584850662</v>
+        <v>2932.9755828467</v>
       </c>
       <c r="U41" t="n">
-        <v>2800.679533857469</v>
+        <v>2785.739530851526</v>
       </c>
       <c r="V41" t="n">
-        <v>2634.183902924889</v>
+        <v>2552.149399125273</v>
       </c>
       <c r="W41" t="n">
-        <v>2376.681546465385</v>
+        <v>2289.667041663788</v>
       </c>
       <c r="X41" t="n">
-        <v>2100.725619970651</v>
+        <v>2008.731114167073</v>
       </c>
       <c r="Y41" t="n">
-        <v>1817.731589463461</v>
+        <v>1720.757082657902</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1923859599553</v>
+        <v>398.0523929738226</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4839465981536</v>
+        <v>336.3639526100399</v>
       </c>
       <c r="D43" t="n">
-        <v>264.3475120728774</v>
+        <v>289.2475170827826</v>
       </c>
       <c r="E43" t="n">
-        <v>222.285378504289</v>
+        <v>242.2053825122131</v>
       </c>
       <c r="F43" t="n">
-        <v>178.456122289471</v>
+        <v>193.3961252954141</v>
       </c>
       <c r="G43" t="n">
-        <v>123.6987469611256</v>
+        <v>133.6587489650877</v>
       </c>
       <c r="H43" t="n">
-        <v>81.71687449482859</v>
+        <v>86.69687549680964</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>138.7025807932585</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>220.5376219032004</v>
       </c>
       <c r="L43" t="n">
-        <v>392.1087193608088</v>
+        <v>384.6652617770002</v>
       </c>
       <c r="M43" t="n">
-        <v>578.4002976990728</v>
+        <v>570.9568401152642</v>
       </c>
       <c r="N43" t="n">
-        <v>872.8280263989041</v>
+        <v>860.5036698330539</v>
       </c>
       <c r="O43" t="n">
-        <v>1035.532793440612</v>
+        <v>1124.974607436392</v>
       </c>
       <c r="P43" t="n">
-        <v>1266.647053885813</v>
+        <v>1351.207968899551</v>
       </c>
       <c r="Q43" t="n">
-        <v>1381.307344924486</v>
+        <v>1460.987360956182</v>
       </c>
       <c r="R43" t="n">
-        <v>1370.903034129272</v>
+        <v>1445.603049158987</v>
       </c>
       <c r="S43" t="n">
-        <v>1281.58362888403</v>
+        <v>1351.303642911765</v>
       </c>
       <c r="T43" t="n">
-        <v>1159.361255624473</v>
+        <v>1224.101268650227</v>
       </c>
       <c r="U43" t="n">
-        <v>987.4191424385832</v>
+        <v>1047.179154462356</v>
       </c>
       <c r="V43" t="n">
-        <v>834.9364758316165</v>
+        <v>889.7164868534079</v>
       </c>
       <c r="W43" t="n">
-        <v>665.1027523350031</v>
+        <v>714.9027623548135</v>
       </c>
       <c r="X43" t="n">
-        <v>544.5191086901953</v>
+        <v>589.3391177080246</v>
       </c>
       <c r="Y43" t="n">
-        <v>434.9037260790476</v>
+        <v>474.7437340948959</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1468.619022532582</v>
+        <v>1486.775892005454</v>
       </c>
       <c r="C44" t="n">
-        <v>1188.940199607722</v>
+        <v>1202.117068078613</v>
       </c>
       <c r="D44" t="n">
-        <v>916.9957493965979</v>
+        <v>969.209813858906</v>
       </c>
       <c r="E44" t="n">
-        <v>627.9089030853515</v>
+        <v>675.1429665456785</v>
       </c>
       <c r="F44" t="n">
-        <v>324.5111431875384</v>
+        <v>366.7652056458844</v>
       </c>
       <c r="G44" t="n">
-        <v>297.5459379007419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>86.95956603944164</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3052.939508719036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2942.935584850662</v>
+        <v>2990.972460335421</v>
       </c>
       <c r="U44" t="n">
-        <v>2800.679533857469</v>
+        <v>2843.736408340247</v>
       </c>
       <c r="V44" t="n">
-        <v>2572.069403133197</v>
+        <v>2610.146276613994</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.567046673694</v>
+        <v>2347.663919152509</v>
       </c>
       <c r="X44" t="n">
-        <v>2038.611120178959</v>
+        <v>2066.727991655794</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.617089671769</v>
+        <v>1778.753960146623</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>363.1923859599553</v>
+        <v>398.0523929738227</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4839465981536</v>
+        <v>336.36395261004</v>
       </c>
       <c r="D46" t="n">
-        <v>264.3475120728774</v>
+        <v>289.2475170827827</v>
       </c>
       <c r="E46" t="n">
-        <v>222.285378504289</v>
+        <v>242.2053825122132</v>
       </c>
       <c r="F46" t="n">
-        <v>178.456122289471</v>
+        <v>193.3961252954142</v>
       </c>
       <c r="G46" t="n">
-        <v>123.6987469611255</v>
+        <v>133.6587489650877</v>
       </c>
       <c r="H46" t="n">
-        <v>81.71687449482857</v>
+        <v>86.69687549680964</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>138.7025807932585</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>326.8948175897808</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>592.7886280252109</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>779.0802063634749</v>
       </c>
       <c r="N46" t="n">
-        <v>761.5899317302817</v>
+        <v>1068.627036081265</v>
       </c>
       <c r="O46" t="n">
-        <v>1035.532793440612</v>
+        <v>1231.331803122973</v>
       </c>
       <c r="P46" t="n">
-        <v>1266.647053885813</v>
+        <v>1457.565164586132</v>
       </c>
       <c r="Q46" t="n">
-        <v>1381.307344924486</v>
+        <v>1460.987360956183</v>
       </c>
       <c r="R46" t="n">
-        <v>1370.903034129271</v>
+        <v>1445.603049158987</v>
       </c>
       <c r="S46" t="n">
-        <v>1281.58362888403</v>
+        <v>1351.303642911765</v>
       </c>
       <c r="T46" t="n">
-        <v>1159.361255624473</v>
+        <v>1224.101268650227</v>
       </c>
       <c r="U46" t="n">
-        <v>987.4191424385829</v>
+        <v>1047.179154462356</v>
       </c>
       <c r="V46" t="n">
-        <v>834.9364758316161</v>
+        <v>889.716486853408</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1027523350028</v>
+        <v>714.9027623548136</v>
       </c>
       <c r="X46" t="n">
-        <v>544.519108690195</v>
+        <v>589.3391177080247</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9037260790475</v>
+        <v>474.743734094896</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>183.1679356791159</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827258</v>
       </c>
       <c r="M2" t="n">
-        <v>662.0021186330521</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>265.9226392115627</v>
+        <v>642.3394320900182</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
@@ -8061,19 +8061,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>335.5346650367007</v>
+        <v>585.608062801546</v>
       </c>
       <c r="N3" t="n">
-        <v>597.6491798894915</v>
+        <v>578.5930536064008</v>
       </c>
       <c r="O3" t="n">
-        <v>604.9646259242138</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>214.1565621793178</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>646.4691104827258</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>187.6043791750124</v>
+        <v>615.0476219875894</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>387.3822793589734</v>
+        <v>585.608062801546</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>319.1984868750861</v>
       </c>
       <c r="O6" t="n">
-        <v>604.9646259242138</v>
+        <v>585.9084996411231</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9375821741921</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8532,19 +8532,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>279.5693555729969</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,28 +9240,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069883</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118431</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,13 +10428,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000183</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>27.53818568274051</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.27897692436818e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749094</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>173.5616339479579</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-1.475264355121908e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>238.4230847438271</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.5075986002664</v>
       </c>
     </row>
     <row r="27">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>121.5075986002659</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.4230847438273</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>42.32726065352925</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>301.5996171623511</v>
       </c>
       <c r="H41" t="n">
-        <v>208.4805081426873</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>61.49335479377399</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.57702502346348</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269.9738629364619</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>213.4107091346485</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.52223494393411</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.41690871383423</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>748203.8698832833</v>
+        <v>746823.051423643</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>748203.8698832833</v>
+        <v>746823.051423643</v>
       </c>
     </row>
     <row r="4">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>744658.4810393678</v>
+        <v>750250.8080245494</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>744658.4810393678</v>
+        <v>750250.8080245495</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742272.611192441</v>
+        <v>736680.2842072593</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>742272.611192441</v>
+        <v>736680.2842072593</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>577062.9698987419</v>
+      </c>
+      <c r="C2" t="n">
         <v>577062.9698987418</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="D2" t="n">
-        <v>577062.969898742</v>
-      </c>
       <c r="E2" t="n">
-        <v>542323.5925863611</v>
+        <v>542323.5925863625</v>
       </c>
       <c r="F2" t="n">
-        <v>542323.592586362</v>
+        <v>542323.5925863623</v>
       </c>
       <c r="G2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987417</v>
       </c>
       <c r="H2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987413</v>
       </c>
       <c r="I2" t="n">
+        <v>577062.9698987415</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566589.5158497747</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566589.5158497749</v>
+      </c>
+      <c r="L2" t="n">
         <v>577062.9698987416</v>
       </c>
-      <c r="J2" t="n">
-        <v>561880.1878622546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>561880.1878622542</v>
-      </c>
-      <c r="L2" t="n">
-        <v>577062.9698987417</v>
-      </c>
       <c r="M2" t="n">
-        <v>577062.9698987415</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="N2" t="n">
-        <v>577062.9698987413</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="O2" t="n">
-        <v>559871.0343069482</v>
+        <v>555161.7063194269</v>
       </c>
       <c r="P2" t="n">
-        <v>559871.0343069483</v>
+        <v>555161.7063194267</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171675.8275360792</v>
+        <v>165289.6813277109</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>24581.72344984816</v>
+        <v>30501.12795716464</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301435</v>
+        <v>29094.95587301436</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602869</v>
+        <v>58189.9117460287</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989168</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>31699.45768316085</v>
+        <v>27755.29688959182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.311596289</v>
       </c>
       <c r="C4" t="n">
-        <v>238615.3248246001</v>
+        <v>242370.311596289</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>174664.8493247784</v>
       </c>
       <c r="F4" t="n">
-        <v>174664.8493247783</v>
+        <v>174664.8493247784</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26439,10 +26439,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="J4" t="n">
-        <v>188938.3872119906</v>
+        <v>192375.5280079683</v>
       </c>
       <c r="K4" t="n">
-        <v>188938.3872119906</v>
+        <v>192375.5280079683</v>
       </c>
       <c r="L4" t="n">
         <v>199269.1699682603</v>
@@ -26454,10 +26454,10 @@
         <v>199269.1699682603</v>
       </c>
       <c r="O4" t="n">
-        <v>187091.6797433468</v>
+        <v>183756.6055360512</v>
       </c>
       <c r="P4" t="n">
-        <v>187091.6797433468</v>
+        <v>183756.6055360512</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773583</v>
       </c>
       <c r="C5" t="n">
-        <v>64774.04567574775</v>
+        <v>63615.43319773583</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,10 +26491,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>59923.7011103345</v>
+        <v>61082.31358834641</v>
       </c>
       <c r="K5" t="n">
-        <v>59923.7011103345</v>
+        <v>61082.31358834641</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611278</v>
       </c>
       <c r="P5" t="n">
-        <v>56656.67380330597</v>
+        <v>56242.19673611278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101997.7718623148</v>
+        <v>105787.5437770061</v>
       </c>
       <c r="C6" t="n">
-        <v>273673.5993983938</v>
+        <v>271077.2251047171</v>
       </c>
       <c r="D6" t="n">
-        <v>259873.9326200533</v>
+        <v>253954.5281127363</v>
       </c>
       <c r="E6" t="n">
-        <v>182093.5226149615</v>
+        <v>181984.9620608617</v>
       </c>
       <c r="F6" t="n">
-        <v>312546.4537526746</v>
+        <v>312437.8931985736</v>
       </c>
       <c r="G6" t="n">
-        <v>290529.0747419474</v>
+        <v>290529.0747419473</v>
       </c>
       <c r="H6" t="n">
-        <v>319624.0306149618</v>
+        <v>319624.0306149613</v>
       </c>
       <c r="I6" t="n">
+        <v>319624.0306149615</v>
+      </c>
+      <c r="J6" t="n">
+        <v>112261.4466375147</v>
+      </c>
+      <c r="K6" t="n">
+        <v>313098.9447095572</v>
+      </c>
+      <c r="L6" t="n">
+        <v>261434.1188689329</v>
+      </c>
+      <c r="M6" t="n">
+        <v>273502.10937507</v>
+      </c>
+      <c r="N6" t="n">
         <v>319624.0306149616</v>
       </c>
-      <c r="J6" t="n">
-        <v>112180.6014678872</v>
-      </c>
-      <c r="K6" t="n">
-        <v>313018.0995399291</v>
-      </c>
-      <c r="L6" t="n">
-        <v>261434.1188689331</v>
-      </c>
-      <c r="M6" t="n">
-        <v>273502.1093750698</v>
-      </c>
-      <c r="N6" t="n">
-        <v>319624.0306149613</v>
-      </c>
       <c r="O6" t="n">
-        <v>284423.2230771345</v>
+        <v>287339.1657089857</v>
       </c>
       <c r="P6" t="n">
-        <v>316122.6807602955</v>
+        <v>315094.4625985773</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,7 +26707,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="P2" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="C4" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>855.6241555354144</v>
+        <v>874.680281818505</v>
       </c>
       <c r="K4" t="n">
-        <v>855.6241555354144</v>
+        <v>874.680281818505</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304847</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253586</v>
+        <v>72.73738968253588</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>39.62432210395106</v>
+        <v>34.69412111198977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>79.1350592339702</v>
+        <v>98.19118551706094</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321489</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126794</v>
+        <v>36.36869484126795</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304852</v>
+        <v>57.62257963304847</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>79.1350592339702</v>
+        <v>98.19118551706094</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,10 +27379,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>370.3124512957963</v>
       </c>
       <c r="D2" t="n">
-        <v>144.2744636799231</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>28.26242177180775</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>81.63429352254894</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>81.52110699009285</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.5610475299993</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>145.815628051178</v>
       </c>
       <c r="D5" t="n">
-        <v>335.0408857164867</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>65.06063007063688</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>160.7457511419656</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776315</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>123.6349269934363</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,10 +27856,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>24.53905781618727</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,7 +28023,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>111.4478228600192</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28743,19 +28743,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,46 +29272,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>68.98202195959971</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>50.44530812135952</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>68.98202195959982</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.4453081213594</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>5.636002634528936</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>128.2979821082783</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>35.71049010668722</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,19 +30405,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634528452</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5.636002634528609</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>84.87566734641575</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>102.794111678414</v>
       </c>
       <c r="P43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="R43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="S43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y43" t="n">
-        <v>112.3617117864869</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y44" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="C46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="D46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="E46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="F46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="G46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="H46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="I46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>102.7941116784144</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>84.87566734641541</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="O46" t="n">
-        <v>112.361711786487</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Q46" t="n">
-        <v>112.361711786487</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="S46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="T46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="U46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="V46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="W46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="X46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
       <c r="Y46" t="n">
-        <v>112.361711786487</v>
+        <v>107.4315107945257</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>65.4880977367698</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="M2" t="n">
-        <v>512.2770670353249</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>116.8041478737786</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>243.1475429873888</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="N3" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="O3" t="n">
-        <v>512.2770670353249</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>127.0731973600032</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48588783722826</v>
+        <v>465.9291306498053</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>294.9951573096615</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>233.8263740209195</v>
       </c>
       <c r="O6" t="n">
-        <v>512.2770670353249</v>
+        <v>493.2209407522341</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>220.3737447500957</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565491</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453562</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>567.2853469278107</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>601.961368772451</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
@@ -36616,7 +36616,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576764</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>431.5904623913794</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>548.7486330895704</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36847,7 +36847,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576764</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37148,13 +37148,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37242,10 +37242,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>126.7230387724871</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>220.750524481646</v>
+        <v>313.3380164832371</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133843</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>193.8093140873206</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>77.35702332236664</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>250.6611621684357</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>297.4017461614458</v>
+        <v>292.4715451694845</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>267.1423612154928</v>
       </c>
       <c r="P43" t="n">
-        <v>233.4487479244451</v>
+        <v>228.5185469324839</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.8184757966394</v>
+        <v>110.8882748046782</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>77.35702332236664</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>190.0931684813357</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>268.5796065004344</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>269.9157017213742</v>
+        <v>292.4715451694845</v>
       </c>
       <c r="O46" t="n">
-        <v>276.7099613235658</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>233.4487479244451</v>
+        <v>228.5185469324839</v>
       </c>
       <c r="Q46" t="n">
-        <v>115.8184757966394</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
